--- a/src/main/resources/profs.xlsx
+++ b/src/main/resources/profs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Pacher</t>
   </si>
@@ -216,6 +216,60 @@
   </si>
   <si>
     <t>https://msqc.cgi-host6.rz.uni-frankfurt.de/wp-content/uploads/2024/03/anaegel-2.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.es.cs.uni-frankfurt.de/team/Mathias_Pacher/</t>
+  </si>
+  <si>
+    <t>https://www.cvai.cs.uni-frankfurt.de/index.html</t>
+  </si>
+  <si>
+    <t>https://msqc.cgi-host6.rz.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://ae.cs.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://www2.ki.informatik.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://compeng.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://www.es.cs.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://www.em.informatik.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://www.texttechnologylab.org/</t>
+  </si>
+  <si>
+    <t>http://www1.ccc.cs.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://ae.cs.uni-frankfurt.de/staff/annamaria_kovacs.html</t>
+  </si>
+  <si>
+    <t>https://www.fias.science/en/computer-sciences-and-ai-systems/research-groups/ivan-kisel/</t>
+  </si>
+  <si>
+    <t>http://www.wi.informatik.uni-frankfurt.de/index.php?lang=de</t>
+  </si>
+  <si>
+    <t>https://edutec.science/</t>
+  </si>
+  <si>
+    <t>https://tcs.uni-frankfurt.de/</t>
+  </si>
+  <si>
+    <t>https://www.fias.science/en/life-and-neurosciences/research-groups/matthias-kaschube/</t>
+  </si>
+  <si>
+    <t>https://www.fias.science/en/life-and-neurosciences/research-groups/jochen-triesch/</t>
+  </si>
+  <si>
+    <t>PD Dr.</t>
   </si>
 </sst>
 </file>
@@ -533,20 +587,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="210.28515625" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +613,11 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -573,8 +630,11 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -587,8 +647,11 @@
       <c r="D3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -601,8 +664,11 @@
       <c r="D4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -615,8 +681,11 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -629,8 +698,11 @@
       <c r="D6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -643,8 +715,11 @@
       <c r="D7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -657,8 +732,11 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -671,8 +749,11 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -685,8 +766,11 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -699,8 +783,11 @@
       <c r="D11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -714,7 +801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -727,8 +814,11 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -741,8 +831,11 @@
       <c r="D14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -756,7 +849,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -769,8 +862,11 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -783,8 +879,11 @@
       <c r="D17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -797,8 +896,11 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -806,13 +908,13 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -824,6 +926,9 @@
       </c>
       <c r="D20" t="s">
         <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
